--- a/darpa_template_blank.xlsx
+++ b/darpa_template_blank.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/isapoetzsch/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/isapoetzsch/Documents/Utah 2020/GSoC/GSOC2020/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EC78E5A-E1AA-1945-84C7-3A30205CDCF4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07CA5840-113A-5843-B3B0-A74867888D68}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12940" yWindow="460" windowWidth="28800" windowHeight="16400" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Library" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="56">
   <si>
     <t>Collection Name:</t>
   </si>
@@ -192,6 +192,9 @@
   </si>
   <si>
     <t>Parts:</t>
+  </si>
+  <si>
+    <t>Libraries</t>
   </si>
 </sst>
 </file>
@@ -761,8 +764,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2105,8 +2108,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{733B2DFE-EFBF-0640-98AB-35CC018B7763}">
   <dimension ref="A1:F66"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2179,6 +2182,11 @@
       <c r="B8" s="3"/>
       <c r="C8" s="34"/>
       <c r="D8" s="5"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="10" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="17" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">

--- a/darpa_template_blank.xlsx
+++ b/darpa_template_blank.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/isapoetzsch/Documents/Utah 2020/GSoC/GSOC2020/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07CA5840-113A-5843-B3B0-A74867888D68}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D692864-A018-D14D-AE09-399557196EBC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12940" yWindow="460" windowWidth="28800" windowHeight="16400" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16400" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Library" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="58">
   <si>
     <t>Collection Name:</t>
   </si>
@@ -195,13 +195,19 @@
   </si>
   <si>
     <t>Libraries</t>
+  </si>
+  <si>
+    <t>Abbreviations</t>
+  </si>
+  <si>
+    <t>Add libraries in a horizontal list</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -212,32 +218,38 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <i/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="12"/>
       <color theme="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -245,16 +257,7 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -262,8 +265,34 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -282,8 +311,14 @@
         <bgColor rgb="FFE2EFD9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE2F0D9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="18">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -482,11 +517,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -547,6 +621,12 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -2109,7 +2189,7 @@
   <dimension ref="A1:F66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2117,7 +2197,7 @@
     <col min="1" max="1" width="20.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2127,7 +2207,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>7</v>
       </c>
@@ -2135,7 +2215,7 @@
       <c r="C2" s="34"/>
       <c r="D2" s="5"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>8</v>
       </c>
@@ -2143,7 +2223,7 @@
       <c r="C3" s="34"/>
       <c r="D3" s="5"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>10</v>
       </c>
@@ -2151,7 +2231,7 @@
       <c r="C4" s="34"/>
       <c r="D4" s="5"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>12</v>
       </c>
@@ -2159,7 +2239,7 @@
       <c r="C5" s="34"/>
       <c r="D5" s="5"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>13</v>
       </c>
@@ -2167,7 +2247,7 @@
       <c r="C6" s="34"/>
       <c r="D6" s="5"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>14</v>
       </c>
@@ -2175,7 +2255,7 @@
       <c r="C7" s="34"/>
       <c r="D7" s="5"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
         <v>16</v>
       </c>
@@ -2183,10 +2263,35 @@
       <c r="C8" s="34"/>
       <c r="D8" s="5"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="10" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="40" t="s">
         <v>55</v>
       </c>
+      <c r="B10" s="41"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" s="42"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="43"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="44" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12" s="45"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="45"/>
     </row>
     <row r="17" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">

--- a/darpa_template_blank.xlsx
+++ b/darpa_template_blank.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/isapoetzsch/Documents/Utah 2020/GSoC/GSOC2020/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/isapoetzsch/Documents/Utah_2020/GSoC/GSOC2020/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D692864-A018-D14D-AE09-399557196EBC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3FF5B5E-0097-6D4F-8D03-DF1A41D09649}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16400" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -200,7 +200,7 @@
     <t>Abbreviations</t>
   </si>
   <si>
-    <t>Add libraries in a horizontal list</t>
+    <t>Add libraries in a vertical list and add more rows if necessary</t>
   </si>
 </sst>
 </file>
@@ -318,7 +318,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -540,17 +540,6 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -560,7 +549,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -612,6 +601,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -621,12 +614,9 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -955,11 +945,11 @@
       <c r="E10" s="10"/>
     </row>
     <row r="11" spans="1:26" ht="57" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="35"/>
-      <c r="B11" s="36"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="37"/>
+      <c r="A11" s="39"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="41"/>
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2186,10 +2176,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{733B2DFE-EFBF-0640-98AB-35CC018B7763}">
-  <dimension ref="A1:F66"/>
+  <dimension ref="A1:N66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2197,7 +2187,7 @@
     <col min="1" max="1" width="20.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2207,7 +2197,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>7</v>
       </c>
@@ -2215,7 +2205,7 @@
       <c r="C2" s="34"/>
       <c r="D2" s="5"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>8</v>
       </c>
@@ -2223,7 +2213,7 @@
       <c r="C3" s="34"/>
       <c r="D3" s="5"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>10</v>
       </c>
@@ -2231,7 +2221,7 @@
       <c r="C4" s="34"/>
       <c r="D4" s="5"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>12</v>
       </c>
@@ -2239,7 +2229,7 @@
       <c r="C5" s="34"/>
       <c r="D5" s="5"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>13</v>
       </c>
@@ -2247,7 +2237,7 @@
       <c r="C6" s="34"/>
       <c r="D6" s="5"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>14</v>
       </c>
@@ -2255,7 +2245,7 @@
       <c r="C7" s="34"/>
       <c r="D7" s="5"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
         <v>16</v>
       </c>
@@ -2263,35 +2253,42 @@
       <c r="C8" s="34"/>
       <c r="D8" s="5"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="40" t="s">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="B10" s="41"/>
-      <c r="C10" s="41"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="41"/>
-      <c r="F10" s="41"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="40" t="s">
+      <c r="B10" s="44" t="s">
         <v>56</v>
       </c>
-      <c r="B11" s="42"/>
-      <c r="C11" s="43"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="43"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="44" t="s">
+      <c r="C10" s="37" t="s">
         <v>57</v>
       </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11" s="45"/>
+      <c r="B11" s="45"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12" s="45"/>
       <c r="B12" s="45"/>
-      <c r="C12" s="45"/>
-      <c r="D12" s="45"/>
-      <c r="E12" s="45"/>
-      <c r="F12" s="45"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="38"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13" s="45"/>
+      <c r="B13" s="46"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14" s="45"/>
+      <c r="B14" s="45"/>
+      <c r="M14" s="35"/>
+      <c r="N14" s="35"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M15" s="35"/>
+      <c r="N15" s="35"/>
     </row>
     <row r="17" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
@@ -2364,7 +2361,7 @@
       <c r="F23" s="9"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="38" t="s">
+      <c r="A24" s="42" t="s">
         <v>53</v>
       </c>
       <c r="B24" s="9"/>
@@ -2374,7 +2371,7 @@
       <c r="F24" s="9"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="39"/>
+      <c r="A25" s="43"/>
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
       <c r="D25" s="9"/>
@@ -2382,7 +2379,7 @@
       <c r="F25" s="9"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="39"/>
+      <c r="A26" s="43"/>
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
       <c r="D26" s="9"/>
@@ -2390,7 +2387,7 @@
       <c r="F26" s="9"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="39"/>
+      <c r="A27" s="43"/>
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
       <c r="D27" s="9"/>
